--- a/3-semester/physics/lab1.xlsx
+++ b/3-semester/physics/lab1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakle\YandexDisk\University\physics2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rgpu\3-semester\physics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F58ACD2-FE40-464B-A36B-97E84FA1B2B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6EA89B-3A6D-481D-A911-FE24002EE705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D40B5AD3-BEE7-44B8-9F76-CA14AEEAD0A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D40B5AD3-BEE7-44B8-9F76-CA14AEEAD0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -94,9 +88,6 @@
     <t>Среднее значение</t>
   </si>
   <si>
-    <t>Лабараторная работа № 1. Дифракция света. Моисеенко Павел, Трубкина Алесандра, Шеховцова Елизавета. Цель: исследование дифракции света. Приборы: . Формулы: . Вывод: .</t>
-  </si>
-  <si>
     <t>Относительная погрешность</t>
   </si>
   <si>
@@ -104,6 +95,9 @@
   </si>
   <si>
     <t>L, м</t>
+  </si>
+  <si>
+    <t>Лабараторная работа № 1. Дифракция света. Моисеенко Павел, Трубкина Алесандра, Шеховцова Елизавета Цель: исследование дифракции света. Приборы: . Формулы: . Вывод: .</t>
   </si>
 </sst>
 </file>
@@ -178,10 +172,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -192,14 +182,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -215,9 +209,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +249,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -361,7 +355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -514,65 +508,65 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -582,163 +576,163 @@
       <c r="C4" s="6">
         <v>0.29099999999999998</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <f>ABS(($B$4*($E4/SQRT($C$4*$C$4+E4*E4)))/D4)</f>
         <v>5.8319811588163999E-7</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <f>ABS(F4-$F$20)</f>
         <v>5.7273424499391265E-8</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>-1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F11" si="0">ABS(($B$4*($E5/SQRT($C$4*$C$4+E5*E5)))/D5)</f>
         <v>6.1737674864038957E-7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <f t="shared" ref="H5:H19" si="1">ABS(F5-$F$20)</f>
         <v>2.3094791740641684E-8</v>
       </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>6.3066145883008393E-7</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>9.8100815509473222E-9</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>-2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>6.6416493082301721E-7</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>2.3693390441985959E-8</v>
       </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>6.3E-2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>7.0530981060382984E-7</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>6.4838270222798585E-8</v>
       </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>-3</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>6.8387627111642746E-7</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>4.3404730735396212E-8</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>6.9334123212288453E-7</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>5.286969174185328E-8</v>
       </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>-4</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>6.9334123212288453E-7</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>5.286969174185328E-8</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -748,179 +742,179 @@
       <c r="C12" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <f>ABS(($B$12*($E12/SQRT($C$12*$C$12+E12*E12)))/D12)</f>
         <v>5.1655085428040102E-7</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>1.2392068610063023E-7</v>
       </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>-1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <v>1.6E-2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <f t="shared" ref="F13:F18" si="2">ABS(($B$12*($E13/SQRT($C$12*$C$12+E13*E13)))/D13)</f>
         <v>5.5088632733930758E-7</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <f t="shared" si="1"/>
         <v>8.9585213041723675E-8</v>
       </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
         <f t="shared" si="2"/>
         <v>6.3280137923153797E-7</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>7.6701611494932851E-9</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>-2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <f t="shared" si="2"/>
         <v>6.1596174524877066E-7</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <f t="shared" si="1"/>
         <v>2.4509795132260591E-8</v>
       </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>3</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="4">
         <f t="shared" si="2"/>
         <v>6.3200265157913625E-7</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>8.4688888018949969E-9</v>
       </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>-3</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="4">
         <v>0.06</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="4">
         <f>ABS(($B$12*($E17/SQRT($C$12*$C$12+E17*E17)))/D17)</f>
         <v>6.7535201345317429E-7</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <f t="shared" si="1"/>
         <v>3.4880473072143041E-8</v>
       </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <v>4</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="4">
         <v>0.08</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="4">
         <f t="shared" si="2"/>
         <v>6.6482249531453366E-7</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="2">
         <f t="shared" si="1"/>
         <v>2.4350954933502408E-8</v>
       </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <v>-4</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="4">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="4">
         <f>ABS(($B$12*($E19/SQRT($C$12*$C$12+E19*E19)))/D19)</f>
         <v>6.8789737950848344E-7</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <f t="shared" si="1"/>
         <v>4.742583912745219E-8</v>
       </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
         <f>AVERAGE(F4:F19)</f>
         <v>6.4047154038103125E-7</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <f>AVERAGE(H4:H19)</f>
         <v>4.3041630252123E-8</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
